--- a/CRSP.xlsx
+++ b/CRSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD924B01-4155-4741-89DE-275D392C7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713AF0C6-B480-4E14-AAD3-9FC16C73F188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9B5B8DF-7EAB-4339-B0EF-3E91D002C2E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{C9B5B8DF-7EAB-4339-B0EF-3E91D002C2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +160,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -177,12 +175,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,16 +217,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,106 +565,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D834B-CEDD-4321-A9AB-A52923F4FD23}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>85.168158000000005</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f>K3*K4</f>
         <v>3832.5671100000004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f>484.472+1517.147</f>
         <v>2001.6189999999999</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>K5-K6</f>
         <v>1830.9481100000005</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -669,455 +682,456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FD1EE8-ECA3-4AA6-BC6A-0845E5A3469F}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>70</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:G5" si="0">C3+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <f>H3+H4</f>
         <v>0.51700000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <f t="shared" ref="I5:J5" si="1">I3+I4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>101.55500000000001</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>80.165000000000006</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>19.032</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>19.481000000000002</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>44.636000000000003</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>52.131</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:G9" si="2">C5-SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>D5-SUM(D6:D8)</f>
         <v>-95.223000000000013</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>H5-SUM(H6:H8)</f>
         <v>-151.26000000000002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" ref="I9:J9" si="3">I5-SUM(I6:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>18.405999999999999</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>26.138999999999999</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:G11" si="4">C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>D9+D10</f>
         <v>-76.817000000000007</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>H9+H10</f>
         <v>-125.12100000000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" ref="I11:J11" si="5">I9+I10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
         <v>0.92300000000000004</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>1.2869999999999999</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:G13" si="6">C11-C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="6"/>
         <v>-77.740000000000009</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>H11-H12</f>
         <v>-126.40800000000003</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" ref="I13:J13" si="7">I11-I12</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <f>D13/D16</f>
         <v>-0.98291765235011841</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <f>H13/H16</f>
         <v>-1.4885376489463513</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>79.091060999999996</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>84.920929000000001</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
